--- a/medicine/Sexualité et sexologie/Gilles_Berquet/Gilles_Berquet.xlsx
+++ b/medicine/Sexualité et sexologie/Gilles_Berquet/Gilles_Berquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilles Berquet est un photographe français né le 3 mars 1956[1] à Saint-Mandé (Val-de-Marne).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilles Berquet est un photographe français né le 3 mars 1956 à Saint-Mandé (Val-de-Marne).
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé des Beaux-Arts en 1981[réf. souhaitée], Gilles Berquet a une formation de peintre[réf. souhaitée] mais s'oriente rapidement vers la photographie.
 Dans les années 1990, il se fait remarquer par des images empreintes d’une forte charge sexuelle. Elles montrent le plus souvent le corps féminin fétichisé, sous une forme sciemment théâtralisée qui les rend équivoques.[réf. souhaitée]
-Souvent classé[Par qui ?] parmi les photographes érotiques, son travail s'en écarte par le simple fait qu'il ne fonctionne pas en tant que tel [2]:
-Dans la revue Maniac  (revue d'amour critique) qu'il crée en 1994,[réf. souhaitée] Gilles Berquet développe l'art du bondage avec un certain humour, non sans rapport avec le travail de John Willie[3]. La revue se veut un hommage ou une suite à la revue Bizarre de John Willie.
+Souvent classé[Par qui ?] parmi les photographes érotiques, son travail s'en écarte par le simple fait qu'il ne fonctionne pas en tant que tel :
+Dans la revue Maniac  (revue d'amour critique) qu'il crée en 1994,[réf. souhaitée] Gilles Berquet développe l'art du bondage avec un certain humour, non sans rapport avec le travail de John Willie. La revue se veut un hommage ou une suite à la revue Bizarre de John Willie.
 Depuis l'année 2000, Gilles Berquet diversifie son champ d'investigation. Dans ses récentes séries de paysages (depuis 2007), il puise dans l’univers cinématographique et télévisuel, des images tout à la fois malfaisantes et merveilleuses qui tiraillent le spectateur entre la peur et le désir.
 </t>
         </is>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Principales expositions personnelles
-Années 2010
+          <t>Principales expositions personnelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Années 2010
 2012 : « Stars in my studio », Micro Onde (centre d'art contemporain de Vélizy-Villacoublay)
 2011 : « Stranger than fiction », Le Cube (Issy-les-Moulineaux) — Galerie NKA (Bruxelles) — Galerie KA&amp;NAO (Grenoble)
 2018 : Galerie Arsenic, Paris.
@@ -575,8 +594,43 @@
 Années 1980
 1987 : Todd Kaplan Gallery (Los Angeles)
 1984 : Galerie Christian Laune (Montpellier)
-[réf. souhaitée]
-Expositions collectives
+[réf. souhaitée]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gilles_Berquet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Berquet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Expositions (sélection)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 2011 : (janvier) Berlin Paris Bar — Galerie Loft Suzanne Tarasiève (Paris) — (janvier-mars) TénébrO (variatons autour du ténébrisme) — Micro Onde, centre d’art (Vélizy-Villacoublay)
 2010 : « Le Miroir noir » (espace Paul Ricard, Paris) — Optical sound (Galerie Frédérique Giroux)
 2009 : « Terriblement beau, terriblement faux » (Galerie Esther Woerdehoff, Paris)
@@ -591,8 +645,43 @@
 [réf. souhaitée]
 Le travail de Gilles Berquet a été montré de nombreuses fois dans les foires internationales d'art contemporain, notamment à Paris, Chicago, Cologne et Bâle.[réf. souhaitée]
 Depuis 2004, le travail de Gilles Berquet est représenté en France par la galerie Air de Paris.[réf. souhaitée]
-Collections publiques
-Trois œuvres ont été acquises, en 2004, par le Fonds national d’art contemporain (FNAC)[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gilles_Berquet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Berquet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Expositions (sélection)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collections publiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois œuvres ont été acquises, en 2004, par le Fonds national d’art contemporain (FNAC)[réf. nécessaire].
 </t>
         </is>
       </c>
